--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1829.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1829.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.859354848688978</v>
+        <v>0.4721909463405609</v>
       </c>
       <c r="B1">
-        <v>2.165423437304396</v>
+        <v>1.802385330200195</v>
       </c>
       <c r="C1">
-        <v>2.212445455466274</v>
+        <v>4.878477573394775</v>
       </c>
       <c r="D1">
-        <v>2.73012160624503</v>
+        <v>1.68873393535614</v>
       </c>
       <c r="E1">
-        <v>2.494633649507905</v>
+        <v>0.8877521753311157</v>
       </c>
     </row>
   </sheetData>
